--- a/data_hackaton.xlsx
+++ b/data_hackaton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eruimy/PycharmProjects/hackaton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5F02A-944C-EA4C-84A7-D8E1FEADC080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40A585-CAA1-D14B-B233-6CB574934854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{CF672A79-7502-E14B-B554-4CB241DC45FB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CF672A79-7502-E14B-B554-4CB241DC45FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
